--- a/12_Hand_gesture_recognition_v2/Hand_gesture_recognition_v2_usbcam/exe/resnet18_cam/resnet18_cam_summary.xlsx
+++ b/12_Hand_gesture_recognition_v2/Hand_gesture_recognition_v2_usbcam/exe/resnet18_cam/resnet18_cam_summary.xlsx
@@ -834,7 +834,7 @@
         <v>224</v>
       </c>
       <c r="S6" t="n">
-        <v>1904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="7" outlineLevel="1">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>18817</v>
+        <v>17810</v>
       </c>
     </row>
     <row r="41">
